--- a/InputFiles/TC02_Canine_Study_MGT01_Biobank_CSU_UCD.xlsx
+++ b/InputFiles/TC02_Canine_Study_MGT01_Biobank_CSU_UCD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\ICDC All tab fix\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C78B6-E1EF-4361-BE92-B339A34E8B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C4A77-037F-45D1-ABB9-C0E2B3239CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -566,22 +566,22 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="21.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="360" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
